--- a/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 9,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 1,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 4,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,65; 76,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>267,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,66%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,16; 24,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 4,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,96; 733,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,37</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-10,5; 30,38</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,75; 569,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>301,2%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,97; 14,15</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 1,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 2,29</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 147,08</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>53,66%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>1.358797459843611</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3237335527380957</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.394517865438811</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.07821640713369457</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5876290937511548</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +636,126 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 9,43</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 1,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 4,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-49,65; 76,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.72302902072729</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.286874940820203</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3450937855967167</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4965260635141144</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.429909959738408</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.813279511641454</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.44122452874167</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7608390977601307</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>267,39%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>53,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 24,86</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 4,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>72,96; 733,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.42142089993448</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.358850634665745</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4540685669866285</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.673885648989107</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.8366026203632281</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>65,06%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.160025803711225</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.095843586379988</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.7295676910626412</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 30,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-48,75; 569,47</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.8647695268395</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.571031654231942</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.013879697137793</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>7.334765099274745</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +763,133 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>65,76%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>224,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>301,2%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>10.36813465065316</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.6505796631845094</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 14,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 1,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 2,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 147,08</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.50263400915121</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.4874893267567088</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.38364219069425</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>5.694726457508651</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>8.318292383627664</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7164534388150408</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.8611875920483998</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.6575685929195849</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.707249354892894</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.728584132668298</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.9746794905712752</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2206979530583457</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.08483746503954685</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04765042147033887</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.14787753869439</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.172570925896313</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.4003972706928</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.470795289526442</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +898,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
